--- a/RegressionTests/Unit_Test_5/expected_secondzip/expected_aptrans_anon.603520Irish_Life_Pension_Report_July_2020.xlsx
+++ b/RegressionTests/Unit_Test_5/expected_secondzip/expected_aptrans_anon.603520Irish_Life_Pension_Report_July_2020.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Pension EE</t>
   </si>
@@ -96,55 +96,58 @@
     <t>ISSUES FOUND</t>
   </si>
   <si>
-    <t>ee</t>
-  </si>
-  <si>
-    <t>er</t>
-  </si>
-  <si>
-    <t>avc</t>
-  </si>
-  <si>
-    <t>263.08</t>
-  </si>
-  <si>
-    <t>420.93</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>117.23</t>
-  </si>
-  <si>
-    <t>234.45</t>
-  </si>
-  <si>
-    <t>372.79</t>
-  </si>
-  <si>
-    <t>596.47</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>729.73</t>
-  </si>
-  <si>
-    <t>210.54</t>
-  </si>
-  <si>
-    <t>336.87</t>
-  </si>
-  <si>
-    <t>1751.04</t>
-  </si>
-  <si>
-    <t>560.33</t>
-  </si>
-  <si>
-    <t>4_Errors_found</t>
+    <t>FORENAME</t>
+  </si>
+  <si>
+    <t>SURNAME</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>AVC</t>
+  </si>
+  <si>
+    <t>Dromahane</t>
+  </si>
+  <si>
+    <t>Recess</t>
+  </si>
+  <si>
+    <t>Ballybofey</t>
+  </si>
+  <si>
+    <t>Kilcoole</t>
+  </si>
+  <si>
+    <t>Caherdaniel</t>
+  </si>
+  <si>
+    <t>Carndonagh</t>
+  </si>
+  <si>
+    <t>Sheeaun</t>
+  </si>
+  <si>
+    <t>D Knocknagoshel</t>
+  </si>
+  <si>
+    <t>Ballinode</t>
+  </si>
+  <si>
+    <t>O'Portnablagh</t>
+  </si>
+  <si>
+    <t>Rossaveel</t>
+  </si>
+  <si>
+    <t>Newtownforbes</t>
+  </si>
+  <si>
+    <t>2_Errors_found</t>
   </si>
   <si>
     <t>Error Type</t>
@@ -159,25 +162,10 @@
     <t>No unique ID reference column (REFNO/PPSNO/Payroll) was found</t>
   </si>
   <si>
-    <t>No Forename column was found</t>
-  </si>
-  <si>
-    <t>No Surname column was found</t>
-  </si>
-  <si>
     <t>schemeNotNull</t>
   </si>
   <si>
     <t>The Scheme ID is missing</t>
-  </si>
-  <si>
-    <t>EE</t>
-  </si>
-  <si>
-    <t>ER</t>
-  </si>
-  <si>
-    <t>AVC</t>
   </si>
   <si>
     <t>NEG_ROWS</t>
@@ -925,7 +913,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -936,7 +924,7 @@
     <col min="1" max="1" width="16.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -949,89 +937,119 @@
       <c r="D1" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.25">
+      <c r="E1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.25">
       <c r="A2" s="5"/>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.25">
+        <v>28</v>
+      </c>
+      <c r="D2">
+        <v>263.08</v>
+      </c>
+      <c r="E2">
+        <v>420.93</v>
+      </c>
+      <c r="F2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.25">
       <c r="A3" s="5"/>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14.25">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>117.23</v>
+      </c>
+      <c r="E3">
+        <v>234.45</v>
+      </c>
+      <c r="F3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25">
       <c r="A4" s="5"/>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.25">
+        <v>32</v>
+      </c>
+      <c r="D4">
+        <v>372.79</v>
+      </c>
+      <c r="E4">
+        <v>596.47</v>
+      </c>
+      <c r="F4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.25">
       <c r="A5" s="5"/>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="14.25">
+        <v>34</v>
+      </c>
+      <c r="D5">
+        <v>500.0</v>
+      </c>
+      <c r="E5">
+        <v>729.73</v>
+      </c>
+      <c r="F5">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.25">
       <c r="A6" s="5"/>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="14.25">
+        <v>36</v>
+      </c>
+      <c r="D6">
+        <v>210.54</v>
+      </c>
+      <c r="E6">
+        <v>336.87</v>
+      </c>
+      <c r="F6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.25">
       <c r="A7" s="5"/>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="14.25">
-      <c r="A8" s="5"/>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="D7">
+        <v>1751.04</v>
+      </c>
+      <c r="E7">
+        <v>560.33</v>
+      </c>
+      <c r="F7">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -1045,7 +1063,7 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1055,48 +1073,32 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15">
-      <c r="A6" t="s">
         <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1117,13 +1119,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
@@ -1139,22 +1141,22 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/Unit_Test_5/expected_secondzip/expected_aptrans_anon.603520Irish_Life_Pension_Report_July_2020.xlsx
+++ b/RegressionTests/Unit_Test_5/expected_secondzip/expected_aptrans_anon.603520Irish_Life_Pension_Report_July_2020.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="105">
   <si>
     <t>Pension EE</t>
   </si>
@@ -111,6 +111,10 @@
     <t>AVC</t>
   </si>
   <si>
+    <t>No Refno or PPS number or payroll number specified
+Member does not have open Paypoints</t>
+  </si>
+  <si>
     <t>Dromahane</t>
   </si>
   <si>
@@ -147,7 +151,7 @@
     <t>Newtownforbes</t>
   </si>
   <si>
-    <t>2_Errors_found</t>
+    <t>1_Errors_found</t>
   </si>
   <si>
     <t>Error Type</t>
@@ -162,12 +166,6 @@
     <t>No unique ID reference column (REFNO/PPSNO/Payroll) was found</t>
   </si>
   <si>
-    <t>schemeNotNull</t>
-  </si>
-  <si>
-    <t>The Scheme ID is missing</t>
-  </si>
-  <si>
     <t>NEG_ROWS</t>
   </si>
   <si>
@@ -178,13 +176,181 @@
   </si>
   <si>
     <t>6593.46</t>
+  </si>
+  <si>
+    <t>Payment Frequency</t>
+  </si>
+  <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>Paypoint</t>
+  </si>
+  <si>
+    <t>Collection Method</t>
+  </si>
+  <si>
+    <t>Date Received</t>
+  </si>
+  <si>
+    <t>Override Date</t>
+  </si>
+  <si>
+    <t>Amount Received</t>
+  </si>
+  <si>
+    <t>MIRO Date</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>1178489</t>
+  </si>
+  <si>
+    <t>101001</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>18/08/2021</t>
+  </si>
+  <si>
+    <t>7,517.33</t>
+  </si>
+  <si>
+    <t>01/08/2021</t>
+  </si>
+  <si>
+    <t>ILIM August 2021</t>
+  </si>
+  <si>
+    <t>1173971</t>
+  </si>
+  <si>
+    <t>16/07/2021</t>
+  </si>
+  <si>
+    <t>1,533.32</t>
+  </si>
+  <si>
+    <t>01/06/2021</t>
+  </si>
+  <si>
+    <t>ILIM Julne 2021</t>
+  </si>
+  <si>
+    <t>1173522</t>
+  </si>
+  <si>
+    <t>5,984.01</t>
+  </si>
+  <si>
+    <t>ILIM June 2021</t>
+  </si>
+  <si>
+    <t>Annually</t>
+  </si>
+  <si>
+    <t>1149840</t>
+  </si>
+  <si>
+    <t>101002</t>
+  </si>
+  <si>
+    <t>25/02/2021</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>19,177.74</t>
+  </si>
+  <si>
+    <t>Revised Risk (Total/12*4)</t>
+  </si>
+  <si>
+    <t>1122062</t>
+  </si>
+  <si>
+    <t>01/07/2020</t>
+  </si>
+  <si>
+    <t>19,974.02</t>
+  </si>
+  <si>
+    <t>2020Risk</t>
+  </si>
+  <si>
+    <t>1067417</t>
+  </si>
+  <si>
+    <t>01/07/2019</t>
+  </si>
+  <si>
+    <t>15,889.15</t>
+  </si>
+  <si>
+    <t>2019 Costs</t>
+  </si>
+  <si>
+    <t>35300</t>
+  </si>
+  <si>
+    <t>101000</t>
+  </si>
+  <si>
+    <t>30/05/2000</t>
+  </si>
+  <si>
+    <t>06/04/2000</t>
+  </si>
+  <si>
+    <t>1,250.13</t>
+  </si>
+  <si>
+    <t>01/05/2000</t>
+  </si>
+  <si>
+    <t>May 00</t>
+  </si>
+  <si>
+    <t>35036</t>
+  </si>
+  <si>
+    <t>24/05/2000</t>
+  </si>
+  <si>
+    <t>03/05/2000</t>
+  </si>
+  <si>
+    <t>01/04/2000</t>
+  </si>
+  <si>
+    <t>Apr '00 intd</t>
+  </si>
+  <si>
+    <t>29038</t>
+  </si>
+  <si>
+    <t>15/03/2000</t>
+  </si>
+  <si>
+    <t>01/03/2000</t>
+  </si>
+  <si>
+    <t>Mar 00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +368,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -299,21 +472,22 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -921,7 +1095,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.25"/>
+    <col min="1" max="1" width="47.5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15">
@@ -944,13 +1118,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="5"/>
+    <row r="2" spans="1:6" ht="30">
+      <c r="A2" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2">
         <v>263.08</v>
@@ -962,13 +1138,15 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3">
         <v>117.23</v>
@@ -980,13 +1158,15 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>372.79</v>
@@ -998,13 +1178,15 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5">
         <v>500.0</v>
@@ -1016,13 +1198,15 @@
         <v>500.0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6">
         <v>210.54</v>
@@ -1034,13 +1218,15 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25">
-      <c r="A7" s="5"/>
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7">
         <v>1751.04</v>
@@ -1063,7 +1249,7 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1073,32 +1259,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15">
-      <c r="A4" t="s">
         <v>44</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1109,13 +1287,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.75"/>
+    <col min="2" max="2" width="14.125"/>
+    <col min="3" max="3" width="8.25"/>
+    <col min="4" max="4" width="15.75"/>
+    <col min="5" max="5" width="13.25"/>
+    <col min="6" max="6" width="12.625"/>
+    <col min="7" max="7" width="15.75"/>
+    <col min="8" max="8" width="10.5"/>
+    <col min="9" max="9" width="22.125"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15">
       <c r="A1" t="s">
@@ -1141,22 +1330,312 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15">
+      <c r="A12" s="8" t="s">
         <v>49</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15">
+      <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" t="s">
+        <v>99</v>
+      </c>
+      <c r="I20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" t="s">
+        <v>93</v>
+      </c>
+      <c r="H21" t="s">
+        <v>103</v>
+      </c>
+      <c r="I21" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
